--- a/medicine/Enfance/TKKG/TKKG.xlsx
+++ b/medicine/Enfance/TKKG/TKKG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 TKKG est une série allemande de romans d'aventures pour jeunes adolescents écrite par Stefan Wolf, pseudonyme de Rolf Kalmuczak, et publiée en Allemagne de 1979 à 2011. C'est l'adaptation littéraire d'une série de pièces radiophoniques à succès crée par Rolf Kalmuczak.
@@ -513,7 +525,9 @@
           <t>Genèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'auteur, Rolf Kalmuczak (1938-2007) a choisi le pseudonyme de Stefan Wolf car il pensait que le nom « Wolf » (loup en allemand) serait plus facilement mémorisable par un jeune lectorat.
 À l'origine, la série devrait être publiée sous le nom de Le Club des quatre, mais comme existait déjà la célèbre série Le Club des cinq d’Enid Blyton, Rolf Kalmuczak a décidé de nommer la sienne d'après les premières lettres des quatre personnages de sa série : TKKG (Tarzan, Karl, Klaus, Gaby).
@@ -545,7 +559,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Très grand succès avec plus de quatorze millions de livres vendus, TKKG et ses dérivés, est l’un des plus grands succès commerciaux allemands. Le nombre de cassettes audio et de CD vendus s’élève à 33 millions.
 Depuis la mort de Rolf Kalmuczak en 2007, la série a été reprise par dix auteurs allemands différents, à la demande expresse du créateur.
@@ -578,7 +594,9 @@
           <t>Thème de la série</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">TKKG est le nom d'un gang de quatre jeunes adolescents. Cet acronyme est formé de la première lettre du prénom de ses membres : Tarzan, Karl, Klaus et Gaby.
 Le club enquête sur des vols, cambriolages, enlèvements, et sur le terrorisme. Il est aidé par Oscar, le chien de Gaby, ainsi que par le père de celle-ci, qui est commissaire.
@@ -613,7 +631,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Tarzan
 Il est le chef du gang. Il pratique les arts martiaux : le judo, d’abord, puis, plus tard, le ju-jitsu. Il aime l'aventure et a le béguin pour Gaby, avec laquelle il se montre très protecteur. Il est interne dans un pensionnat.
@@ -654,7 +674,9 @@
           <t>Liste des titres parus en France ( avec leur équivalent en Allemagne )</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Nota : Seuls certains titres ont été traduits en français, d'où la différence de numérotation entre la section française et la section allemande.
 Se référer à TKKG-site.de pour avoir la liste intégrale des livres publiés en Allemagne.
@@ -688,17 +710,125 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>À la télévision
-1985 : TKKG : série télévisée en 13 épisodes[4].
-1985 à 1987 : Ein Fall für TKKG (en français, Un cas pour TKKG) : dessin animé allemand en 12 épisodes diffusée sur la chaîne ZDF.
-Au cinéma
-1992 : Ein Fall für TKKG : Drachenauge (en français, Un cas pour TKKG : L’œil du dragon)[5], réalisé par Ulrich König sur un scenario de Stefen Wolf.
+          <t>À la télévision</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1985 : TKKG : série télévisée en 13 épisodes.
+1985 à 1987 : Ein Fall für TKKG (en français, Un cas pour TKKG) : dessin animé allemand en 12 épisodes diffusée sur la chaîne ZDF.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TKKG</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/TKKG</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1992 : Ein Fall für TKKG : Drachenauge (en français, Un cas pour TKKG : L’œil du dragon), réalisé par Ulrich König sur un scenario de Stefen Wolf.
 2006 : TKKG und das Geheimnis um die rätselhafte Mind Machine (en français, TKKG et le Secret de la Mystérieuse Machine mentale), film allemand réalisé par Tomy Wigand.
-2019: TKKG, film allemand réalisé par Robert Thalheim.
-À la radio
-Depuis 1981, une série de pièces radiophoniques est publiée d'après la série de livres, sous la direction de Heikedine Körting. Seuls les 31 premiers épisodes sont identiques à la numérotation des livres.
-Bande dessinée
-1987–1989 : 17 albums aux éditions Egmont Ehapa Verlag</t>
+2019: TKKG, film allemand réalisé par Robert Thalheim.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TKKG</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/TKKG</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>À la radio</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 1981, une série de pièces radiophoniques est publiée d'après la série de livres, sous la direction de Heikedine Körting. Seuls les 31 premiers épisodes sont identiques à la numérotation des livres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TKKG</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/TKKG</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1987–1989 : 17 albums aux éditions Egmont Ehapa Verlag</t>
         </is>
       </c>
     </row>
